--- a/dependencies/brucella/melitensis-bv2/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/melitensis-bv2/script_dependents/Filtered_Regions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\melitensis-bv2\script_dependents\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/melitensis-bv2/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A7820-05FE-A947-ABE9-DE561F217914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23295" yWindow="4800" windowWidth="25875" windowHeight="16875" tabRatio="500"/>
+    <workbookView xWindow="23300" yWindow="4800" windowWidth="25880" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NC_012441" sheetId="1" r:id="rId1"/>
-    <sheet name="NC_012442" sheetId="2" r:id="rId2"/>
+    <sheet name="NC_012441.1" sheetId="1" r:id="rId1"/>
+    <sheet name="NC_012442.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1054,8 +1055,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -1395,585 +1396,585 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1027595</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1088499</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>113930</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1161707</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1170901</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1170903</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1179094</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1245356</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1245377</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1245405</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1245592</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1245630</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1245672</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1245750</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1245843</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1286923</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1322423</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1323306</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1323308</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1352853</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1395006</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>150319</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>150419</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>150461</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>150499</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1552335</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1634061</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1634071</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1695870</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1773834</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1803931</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1881080</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1943444</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2080420</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2092011</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>329678</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>381029</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>544416</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>544516</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>544595</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>544712</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>544713</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>544782</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>544811</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>544832</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>548509</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>576720</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>576725</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>580469</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>587623</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>64692</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>64693</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>64697</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>647705</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>650885</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>650888</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>650894</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>650897</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>650899</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>650900</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>650906</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>650912</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>650915</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>650924</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>650957</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>651038</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>651040</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>651047</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>651050</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>651787</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>652807</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>653370</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>653371</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>653391</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>653492</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>653502</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>653506</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>653529</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>653532</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>728010</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>728088</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>728167</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>728354</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>728383</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>728404</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>728483</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>767212</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>776386</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>797316</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>85231</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>896241</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>913877</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>914152</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>914153</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>914182</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>914351</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>914388</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>914908</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>914911</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>961376</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>962835</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>962872</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>962887</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>962900</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>962902</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>963070</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>963332</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>963520</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>963795</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>963796</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>963825</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>971186</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -1988,245 +1989,245 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1073126</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1103802</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1114223</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1114224</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1173347</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>121408</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>157366</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>157370</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>157377</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20925</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>243369</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>261256</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>292914</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>307203</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>415694</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>419807</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>509939</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>511947</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>511952</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>511989</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>512068</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>512089</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>512118</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>512305</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>512386</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>512464</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>512652</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>528750</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>533828</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>57122</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>57125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>59679</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>643689</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>699898</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>714037</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>714043</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>753053</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>811777</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>811792</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>811980</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>812058</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>812255</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>812256</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>812453</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>987534</v>
       </c>
